--- a/data/Biogeochem_DE.xlsx
+++ b/data/Biogeochem_DE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/EastCoast/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/EastCoast/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71087FEB-D757-A641-8CEF-DEC4B5EAA6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC687E6-5FF5-9842-B2E9-8DA814F246DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37060" yWindow="4220" windowWidth="35840" windowHeight="20960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="249">
   <si>
     <t>Field Marsh Organ Study</t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t>MG_Tot_ug_m2_h</t>
+  </si>
+  <si>
+    <t>Salinity</t>
   </si>
 </sst>
 </file>
@@ -914,12 +917,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -950,7 +959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1035,6 +1044,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5650,10 +5669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1654A3E2-E583-3541-923E-44AB3822345E}">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5664,23 +5683,24 @@
     <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>5</v>
       </c>
@@ -5700,61 +5720,64 @@
         <v>226</v>
       </c>
       <c r="G1" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="P1" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -5773,62 +5796,63 @@
       <c r="F2" s="29">
         <v>202.7465026356335</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29">
         <v>39.62911063537652</v>
       </c>
-      <c r="H2" s="29">
+      <c r="I2" s="29">
         <v>222.08753143076052</v>
       </c>
-      <c r="I2" s="29">
+      <c r="J2" s="29">
         <v>16.066380841618223</v>
       </c>
-      <c r="J2" s="29">
+      <c r="K2" s="29">
         <v>0.48030812544610968</v>
       </c>
-      <c r="K2" s="29">
+      <c r="L2" s="29">
         <v>0.63173795591355675</v>
-      </c>
-      <c r="L2" s="29">
-        <v>0</v>
       </c>
       <c r="M2" s="29">
         <v>0</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30" t="s">
+      <c r="N2" s="29">
+        <v>0</v>
+      </c>
+      <c r="O2" s="29"/>
+      <c r="P2" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="P2" s="29">
+      <c r="Q2" s="29">
         <v>0.89221723034320566</v>
       </c>
-      <c r="Q2" s="29">
+      <c r="R2" s="29">
         <v>44.139758745596467</v>
       </c>
-      <c r="R2" s="29">
+      <c r="S2" s="29">
         <v>620.49764450418093</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="T2" s="29">
+      <c r="U2" s="29">
         <v>10.415247948471276</v>
       </c>
-      <c r="U2" s="29">
+      <c r="V2" s="29">
         <v>0.94959178412981105</v>
       </c>
-      <c r="V2" s="29">
+      <c r="W2" s="29">
         <v>16.075293969691952</v>
       </c>
-      <c r="W2" s="33">
-        <f>SUM(U2+V2)</f>
+      <c r="X2" s="33">
+        <f>SUM(V2+W2)</f>
         <v>17.024885753821764</v>
       </c>
-      <c r="X2">
-        <f>(W2*16.04*1000000)/24000</f>
+      <c r="Y2">
+        <f>(X2*16.04*1000000)/24000</f>
         <v>11378.298645470877</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -5845,58 +5869,59 @@
       <c r="F3" s="29">
         <v>260.9012398687222</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29">
         <v>50.054574240883959</v>
       </c>
-      <c r="H3" s="29">
+      <c r="I3" s="29">
         <v>2124.7368099012765</v>
       </c>
-      <c r="I3" s="29">
+      <c r="J3" s="29">
         <v>5.1022248557153036</v>
       </c>
-      <c r="J3" s="29">
+      <c r="K3" s="29">
         <v>4.3647322149994876</v>
       </c>
-      <c r="K3" s="29">
+      <c r="L3" s="29">
         <v>0.53057949213524591</v>
       </c>
-      <c r="L3" s="29">
+      <c r="M3" s="29">
         <v>144.50341714602121</v>
       </c>
-      <c r="M3" s="29">
+      <c r="N3" s="29">
         <v>2587.0197973649779</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="29">
+      <c r="O3" s="29"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="29">
         <v>0.46232833891108699</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="R3" s="29">
         <v>41.390327893996364</v>
       </c>
-      <c r="R3" s="29">
+      <c r="S3" s="29">
         <v>603.94714968637925</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29">
+      <c r="T3" s="28"/>
+      <c r="U3" s="29">
         <v>20.799884225807936</v>
       </c>
-      <c r="U3" s="29">
+      <c r="V3" s="29">
         <v>4.1356260504682503</v>
       </c>
-      <c r="V3" s="29">
+      <c r="W3" s="29">
         <v>13.237178765008313</v>
       </c>
-      <c r="W3" s="33">
-        <f t="shared" ref="W3:W33" si="0">SUM(U3+V3)</f>
+      <c r="X3" s="33">
+        <f t="shared" ref="X3:X33" si="0">SUM(V3+W3)</f>
         <v>17.372804815476563</v>
       </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X33" si="1">(W3*16.04*1000000)/24000</f>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y33" si="1">(X3*16.04*1000000)/24000</f>
         <v>11610.824551676835</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <v>1</v>
       </c>
@@ -5913,60 +5938,61 @@
       <c r="F4" s="29">
         <v>243.9429126506451</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29">
         <v>3.5280455356247025</v>
       </c>
-      <c r="H4" s="29">
+      <c r="I4" s="29">
         <v>710.30667192983969</v>
       </c>
-      <c r="I4" s="29">
+      <c r="J4" s="29">
         <v>0.98431079356582019</v>
       </c>
-      <c r="J4" s="29">
+      <c r="K4" s="29">
         <v>2.5284051577954507</v>
       </c>
-      <c r="K4" s="29">
+      <c r="L4" s="29">
         <v>2.3639370807002158</v>
       </c>
-      <c r="L4" s="29">
+      <c r="M4" s="29">
         <v>118.24594066411488</v>
       </c>
-      <c r="M4" s="29">
+      <c r="N4" s="29">
         <v>388.74621279798902</v>
       </c>
-      <c r="N4" s="29">
+      <c r="O4" s="29">
         <v>71.434309500914992</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="29">
+      <c r="P4" s="31"/>
+      <c r="Q4" s="29">
         <v>1.503203465704644</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="R4" s="29">
         <v>36.650906996185313</v>
       </c>
-      <c r="R4" s="29">
+      <c r="S4" s="29">
         <v>624.16626804062059</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29">
+      <c r="T4" s="28"/>
+      <c r="U4" s="29">
         <v>2.7570552561293966</v>
       </c>
-      <c r="U4" s="32">
+      <c r="V4" s="32">
         <v>2.7121554279352971</v>
       </c>
-      <c r="V4" s="29">
+      <c r="W4" s="29">
         <v>25.464107089237409</v>
       </c>
-      <c r="W4" s="33">
+      <c r="X4" s="33">
         <f t="shared" si="0"/>
         <v>28.176262517172706</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <f t="shared" si="1"/>
         <v>18831.135448977089</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
         <v>1</v>
       </c>
@@ -5983,60 +6009,61 @@
       <c r="F5" s="29">
         <v>221.49382737108309</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="29"/>
+      <c r="H5" s="29">
         <v>29.765147284237649</v>
       </c>
-      <c r="H5" s="29">
+      <c r="I5" s="29">
         <v>296.72055634373436</v>
       </c>
-      <c r="I5" s="29">
+      <c r="J5" s="29">
         <v>0.69306537320281414</v>
       </c>
-      <c r="J5" s="29">
+      <c r="K5" s="29">
         <v>3.1168196341898633</v>
       </c>
-      <c r="K5" s="29">
+      <c r="L5" s="29">
         <v>0.9334268843120066</v>
       </c>
-      <c r="L5" s="29">
+      <c r="M5" s="29">
         <v>37.743867247545353</v>
       </c>
-      <c r="M5" s="29">
+      <c r="N5" s="29">
         <v>161.63507091083221</v>
       </c>
-      <c r="N5" s="29">
+      <c r="O5" s="29">
         <v>63.048860027809503</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="29">
+      <c r="P5" s="31"/>
+      <c r="Q5" s="29">
         <v>0.75804707226767776</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="R5" s="29">
         <v>36.020642237071137</v>
       </c>
-      <c r="R5" s="29">
+      <c r="S5" s="29">
         <v>590.48163375149261</v>
       </c>
-      <c r="S5" s="28"/>
-      <c r="T5" s="29">
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
         <v>12.34298559448672</v>
       </c>
-      <c r="U5" s="29">
+      <c r="V5" s="29">
         <v>1.6192476499044579</v>
       </c>
-      <c r="V5" s="29">
+      <c r="W5" s="29">
         <v>5.2485010884661083</v>
       </c>
-      <c r="W5" s="33">
+      <c r="X5" s="33">
         <f t="shared" si="0"/>
         <v>6.8677487383705662</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f t="shared" si="1"/>
         <v>4589.9454068109953</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
         <v>1</v>
       </c>
@@ -6053,60 +6080,61 @@
       <c r="F6" s="29">
         <v>336.74072318276069</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29">
         <v>2.5056308477447762</v>
       </c>
-      <c r="H6" s="29">
+      <c r="I6" s="29">
         <v>726.21122768912585</v>
       </c>
-      <c r="I6" s="29">
+      <c r="J6" s="29">
         <v>2.4306651692668493</v>
       </c>
-      <c r="J6" s="29">
+      <c r="K6" s="29">
         <v>6.251410175384926</v>
       </c>
-      <c r="K6" s="29">
+      <c r="L6" s="29">
         <v>2.4845233289127715</v>
       </c>
-      <c r="L6" s="29">
+      <c r="M6" s="29">
         <v>63.53661095214148</v>
       </c>
-      <c r="M6" s="29">
+      <c r="N6" s="29">
         <v>312.3932730738976</v>
       </c>
-      <c r="N6" s="29">
+      <c r="O6" s="29">
         <v>78.777083125588121</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="29">
+      <c r="P6" s="31"/>
+      <c r="Q6" s="29">
         <v>1.456676228205942</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="R6" s="29">
         <v>39.983827656809986</v>
       </c>
-      <c r="R6" s="29">
+      <c r="S6" s="29">
         <v>590.89852278972455</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29">
+      <c r="T6" s="28"/>
+      <c r="U6" s="29">
         <v>3.2780920371984759</v>
       </c>
-      <c r="U6" s="29">
+      <c r="V6" s="29">
         <v>3.4893134184849099</v>
       </c>
-      <c r="V6" s="29">
+      <c r="W6" s="29">
         <v>37.022073679695467</v>
       </c>
-      <c r="W6" s="33">
+      <c r="X6" s="33">
         <f t="shared" si="0"/>
         <v>40.511387098180379</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f t="shared" si="1"/>
         <v>27075.110377283887</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>1</v>
       </c>
@@ -6123,60 +6151,61 @@
       <c r="F7" s="29">
         <v>246.88105243490173</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="29"/>
+      <c r="H7" s="29">
         <v>25.81641799944525</v>
       </c>
-      <c r="H7" s="29">
+      <c r="I7" s="29">
         <v>3412.9628837103742</v>
       </c>
-      <c r="I7" s="29">
+      <c r="J7" s="29">
         <v>1.3061616648822263</v>
       </c>
-      <c r="J7" s="29">
+      <c r="K7" s="29">
         <v>3.9678486252166802</v>
       </c>
-      <c r="K7" s="29">
+      <c r="L7" s="29">
         <v>1.3657509149407254</v>
       </c>
-      <c r="L7" s="29">
+      <c r="M7" s="29">
         <v>9.1607584383172309</v>
       </c>
-      <c r="M7" s="29">
+      <c r="N7" s="29">
         <v>92.015811019358068</v>
       </c>
-      <c r="N7" s="29">
+      <c r="O7" s="29">
         <v>51.467484273252104</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="29">
+      <c r="P7" s="31"/>
+      <c r="Q7" s="29">
         <v>1.7643189533637382</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="R7" s="29">
         <v>42.321145827444901</v>
       </c>
-      <c r="R7" s="29">
+      <c r="S7" s="29">
         <v>628.58529184587746</v>
       </c>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29">
+      <c r="T7" s="28"/>
+      <c r="U7" s="29">
         <v>10.656043029587151</v>
       </c>
-      <c r="U7" s="29">
+      <c r="V7" s="29">
         <v>1.0345670076034856</v>
       </c>
-      <c r="V7" s="29">
+      <c r="W7" s="29">
         <v>8.1818200819137061</v>
       </c>
-      <c r="W7" s="33">
+      <c r="X7" s="33">
         <f t="shared" si="0"/>
         <v>9.2163870895171911</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f t="shared" si="1"/>
         <v>6159.6187048273223</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>1</v>
       </c>
@@ -6193,60 +6222,61 @@
       <c r="F8" s="29">
         <v>205.39669667694531</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="29"/>
+      <c r="H8" s="29">
         <v>3.2856516347613871</v>
       </c>
-      <c r="H8" s="29">
+      <c r="I8" s="29">
         <v>412.5422789945261</v>
       </c>
-      <c r="I8" s="29">
+      <c r="J8" s="29">
         <v>1.9834306763026401</v>
       </c>
-      <c r="J8" s="29">
+      <c r="K8" s="29">
         <v>14.200929242377887</v>
       </c>
-      <c r="K8" s="29">
+      <c r="L8" s="29">
         <v>1.5903986292033758</v>
       </c>
-      <c r="L8" s="29">
+      <c r="M8" s="29">
         <v>20.50550484441375</v>
       </c>
-      <c r="M8" s="29">
+      <c r="N8" s="29">
         <v>322.64479914966626</v>
       </c>
-      <c r="N8" s="29">
+      <c r="O8" s="29">
         <v>60.125008650947471</v>
       </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="29">
+      <c r="P8" s="31"/>
+      <c r="Q8" s="29">
         <v>1.2426328621007958</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="R8" s="29">
         <v>36.074885456502777</v>
       </c>
-      <c r="R8" s="29">
+      <c r="S8" s="29">
         <v>543.62330585424081</v>
       </c>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29">
+      <c r="T8" s="28"/>
+      <c r="U8" s="29">
         <v>3.6980596691371872</v>
       </c>
-      <c r="U8" s="29">
+      <c r="V8" s="29">
         <v>18.723639301375815</v>
       </c>
-      <c r="V8" s="29">
+      <c r="W8" s="29">
         <v>23.516287825563651</v>
       </c>
-      <c r="W8" s="33">
+      <c r="X8" s="33">
         <f t="shared" si="0"/>
         <v>42.239927126939463</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f t="shared" si="1"/>
         <v>28230.351296504541</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
         <v>1</v>
       </c>
@@ -6263,60 +6293,61 @@
       <c r="F9" s="29">
         <v>291.97130318705803</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29">
         <v>4.7909737205475746</v>
       </c>
-      <c r="H9" s="29">
+      <c r="I9" s="29">
         <v>639.70696015398642</v>
       </c>
-      <c r="I9" s="29">
+      <c r="J9" s="29">
         <v>1.2528489438666253</v>
       </c>
-      <c r="J9" s="29">
+      <c r="K9" s="29">
         <v>3.9727849882736797</v>
       </c>
-      <c r="K9" s="29">
+      <c r="L9" s="29">
         <v>2.2857793272291151</v>
       </c>
-      <c r="L9" s="29">
+      <c r="M9" s="29">
         <v>56.885534267459356</v>
       </c>
-      <c r="M9" s="29">
+      <c r="N9" s="29">
         <v>687.08702290508484</v>
       </c>
-      <c r="N9" s="29">
+      <c r="O9" s="29">
         <v>70.00469455652582</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="29">
+      <c r="P9" s="31"/>
+      <c r="Q9" s="29">
         <v>0</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="R9" s="29">
         <v>42.316286092370667</v>
       </c>
-      <c r="R9" s="29">
+      <c r="S9" s="29">
         <v>645.09409775985603</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29">
+      <c r="T9" s="28"/>
+      <c r="U9" s="29">
         <v>3.8236114836555792</v>
       </c>
-      <c r="U9" s="29">
+      <c r="V9" s="29">
         <v>62.463255499861923</v>
       </c>
-      <c r="V9" s="29">
+      <c r="W9" s="29">
         <v>47.267151335760431</v>
       </c>
-      <c r="W9" s="33">
+      <c r="X9" s="33">
         <f t="shared" si="0"/>
         <v>109.73040683562235</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f t="shared" si="1"/>
         <v>73336.488568474262</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
         <v>1</v>
       </c>
@@ -6333,60 +6364,61 @@
       <c r="F10" s="29">
         <v>290.48704749370825</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="29"/>
+      <c r="H10" s="29">
         <v>10.890326327444425</v>
       </c>
-      <c r="H10" s="29">
+      <c r="I10" s="29">
         <v>293.53457832202628</v>
       </c>
-      <c r="I10" s="29">
+      <c r="J10" s="29">
         <v>1.2627216699806254</v>
       </c>
-      <c r="J10" s="29">
+      <c r="K10" s="29">
         <v>8.629749896247576</v>
       </c>
-      <c r="K10" s="29">
+      <c r="L10" s="29">
         <v>3.8373223875639999</v>
       </c>
-      <c r="L10" s="29">
+      <c r="M10" s="29">
         <v>17.481092592141245</v>
       </c>
-      <c r="M10" s="29">
+      <c r="N10" s="29">
         <v>276.18954798293919</v>
       </c>
-      <c r="N10" s="29">
+      <c r="O10" s="29">
         <v>88.244439162980285</v>
       </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="29">
+      <c r="P10" s="31"/>
+      <c r="Q10" s="29">
         <v>3.5770961916245265</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="R10" s="29">
         <v>40.971711744034778</v>
       </c>
-      <c r="R10" s="29">
+      <c r="S10" s="29">
         <v>637.84022849462292</v>
       </c>
-      <c r="S10" s="28"/>
-      <c r="T10" s="29">
+      <c r="T10" s="28"/>
+      <c r="U10" s="29">
         <v>16.243226408110676</v>
       </c>
-      <c r="U10" s="29">
+      <c r="V10" s="29">
         <v>7.3326835458124373</v>
       </c>
-      <c r="V10" s="29">
+      <c r="W10" s="29">
         <v>25.219021761946912</v>
       </c>
-      <c r="W10" s="33">
+      <c r="X10" s="33">
         <f t="shared" si="0"/>
         <v>32.551705307759349</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <f t="shared" si="1"/>
         <v>21755.389714019166</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>1</v>
       </c>
@@ -6403,60 +6435,61 @@
       <c r="F11" s="29">
         <v>505.43661301952199</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="29"/>
+      <c r="H11" s="29">
         <v>7.6028481106186874</v>
       </c>
-      <c r="H11" s="29">
+      <c r="I11" s="29">
         <v>2010.9697555868818</v>
       </c>
-      <c r="I11" s="29">
+      <c r="J11" s="29">
         <v>0.62987992607321275</v>
       </c>
-      <c r="J11" s="29">
+      <c r="K11" s="29">
         <v>52.640388367237669</v>
       </c>
-      <c r="K11" s="29">
+      <c r="L11" s="29">
         <v>3.3255007562618188</v>
       </c>
-      <c r="L11" s="29">
+      <c r="M11" s="29">
         <v>121.26797321127827</v>
       </c>
-      <c r="M11" s="29">
+      <c r="N11" s="29">
         <v>1041.0753454483163</v>
       </c>
-      <c r="N11" s="29">
+      <c r="O11" s="29">
         <v>66.013791059260257</v>
       </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="29">
+      <c r="P11" s="31"/>
+      <c r="Q11" s="29">
         <v>2.2812675830663394</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="R11" s="29">
         <v>37.05362180711721</v>
       </c>
-      <c r="R11" s="29">
+      <c r="S11" s="29">
         <v>581.81034175627167</v>
       </c>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29">
+      <c r="T11" s="28"/>
+      <c r="U11" s="29">
         <v>9.7099852198563372</v>
       </c>
-      <c r="U11" s="32">
+      <c r="V11" s="32">
         <v>12.865561748889377</v>
       </c>
-      <c r="V11" s="29">
+      <c r="W11" s="29">
         <v>190.64004503537163</v>
       </c>
-      <c r="W11" s="33">
+      <c r="X11" s="33">
         <f t="shared" si="0"/>
         <v>203.505606784261</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <f t="shared" si="1"/>
         <v>136009.58053414777</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>1</v>
       </c>
@@ -6473,60 +6506,61 @@
       <c r="F12" s="29">
         <v>189.51801888446596</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29">
         <v>1.4655554068232732</v>
       </c>
-      <c r="H12" s="29">
+      <c r="I12" s="29">
         <v>178.51497988035246</v>
       </c>
-      <c r="I12" s="29">
+      <c r="J12" s="29">
         <v>4.137659514377483</v>
       </c>
-      <c r="J12" s="29">
+      <c r="K12" s="29">
         <v>4.1295905353245113</v>
       </c>
-      <c r="K12" s="29">
+      <c r="L12" s="29">
         <v>3.4536794719544246</v>
       </c>
-      <c r="L12" s="29">
+      <c r="M12" s="29">
         <v>3.1112691537306771</v>
       </c>
-      <c r="M12" s="29">
+      <c r="N12" s="29">
         <v>133.92327841677871</v>
       </c>
-      <c r="N12" s="29">
+      <c r="O12" s="29">
         <v>38.447642204753755</v>
       </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="29">
+      <c r="P12" s="31"/>
+      <c r="Q12" s="29">
         <v>0.90661949878430004</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="R12" s="29">
         <v>34.963363991653829</v>
       </c>
-      <c r="R12" s="29">
+      <c r="S12" s="29">
         <v>608.15772897252009</v>
       </c>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29">
+      <c r="T12" s="28"/>
+      <c r="U12" s="29">
         <v>1.156900998452941</v>
       </c>
-      <c r="U12" s="29">
+      <c r="V12" s="29">
         <v>47.318239329303438</v>
       </c>
-      <c r="V12" s="29">
+      <c r="W12" s="29">
         <v>2.3944108501377142</v>
       </c>
-      <c r="W12" s="33">
+      <c r="X12" s="33">
         <f t="shared" si="0"/>
         <v>49.712650179441155</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <f t="shared" si="1"/>
         <v>33224.621203259841</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
         <v>1</v>
       </c>
@@ -6543,200 +6577,203 @@
       <c r="F13" s="29">
         <v>317.31042387253967</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="29"/>
+      <c r="H13" s="29">
         <v>1.5694312383967923</v>
       </c>
-      <c r="H13" s="29">
+      <c r="I13" s="29">
         <v>413.33915748282482</v>
       </c>
-      <c r="I13" s="29">
+      <c r="J13" s="29">
         <v>2.751528767971855</v>
       </c>
-      <c r="J13" s="29">
+      <c r="K13" s="29">
         <v>34.167036899026186</v>
       </c>
-      <c r="K13" s="29">
+      <c r="L13" s="29">
         <v>1.1022476318095851</v>
       </c>
-      <c r="L13" s="29">
+      <c r="M13" s="29">
         <v>18.451823164311676</v>
       </c>
-      <c r="M13" s="29">
+      <c r="N13" s="29">
         <v>343.81377881000196</v>
       </c>
-      <c r="N13" s="29">
+      <c r="O13" s="29">
         <v>82.857843846212788</v>
       </c>
-      <c r="O13" s="31"/>
-      <c r="P13" s="29">
+      <c r="P13" s="31"/>
+      <c r="Q13" s="29">
         <v>0.87295599179419103</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="R13" s="29">
         <v>36.099327065258528</v>
       </c>
-      <c r="R13" s="29">
+      <c r="S13" s="29">
         <v>561.04926765232915</v>
       </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="29">
+      <c r="T13" s="28"/>
+      <c r="U13" s="29">
         <v>1.3979741540175872</v>
       </c>
-      <c r="U13" s="29">
+      <c r="V13" s="29">
         <v>61.331832391102203</v>
       </c>
-      <c r="V13" s="29">
+      <c r="W13" s="29">
         <v>18.002040934281602</v>
       </c>
-      <c r="W13" s="33">
+      <c r="X13" s="33">
         <f t="shared" si="0"/>
         <v>79.333873325383806</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <f t="shared" si="1"/>
         <v>53021.472005798183</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+    <row r="14" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34">
         <v>1</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="34">
         <v>83</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="34">
         <v>12</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="29">
+      <c r="D14" s="34"/>
+      <c r="E14" s="35">
         <v>351.58523444191633</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="35">
         <v>403.29860498776225</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="35"/>
+      <c r="H14" s="35">
         <v>1.1229309340820914</v>
       </c>
-      <c r="H14" s="29">
+      <c r="I14" s="35">
         <v>549.22874564618633</v>
       </c>
-      <c r="I14" s="29">
+      <c r="J14" s="35">
         <v>1.2281671285816245</v>
       </c>
-      <c r="J14" s="29">
+      <c r="K14" s="35">
         <v>54.272349993881882</v>
       </c>
-      <c r="K14" s="29">
+      <c r="L14" s="35">
         <v>2.0834623996724928</v>
       </c>
-      <c r="L14" s="29">
+      <c r="M14" s="35">
         <v>17.481092592141245</v>
       </c>
-      <c r="M14" s="29">
+      <c r="N14" s="35">
         <v>276.18954798293919</v>
       </c>
-      <c r="N14" s="29">
+      <c r="O14" s="35">
         <v>26.545886025822597</v>
       </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="29">
+      <c r="P14" s="36"/>
+      <c r="Q14" s="35">
         <v>1.4855426084907368</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="R14" s="35">
         <v>39.171465765796171</v>
       </c>
-      <c r="R14" s="29">
+      <c r="S14" s="35">
         <v>589.39772225209015</v>
       </c>
-      <c r="S14" s="28"/>
-      <c r="T14" s="29">
+      <c r="T14" s="37"/>
+      <c r="U14" s="35">
         <v>1.130892245030009</v>
       </c>
-      <c r="U14" s="29">
+      <c r="V14" s="35">
         <v>8.7876535803261469</v>
       </c>
-      <c r="V14" s="29">
+      <c r="W14" s="35">
         <v>21.591645747056848</v>
       </c>
-      <c r="W14" s="33">
+      <c r="X14" s="38">
         <f t="shared" si="0"/>
         <v>30.379299327382995</v>
       </c>
-      <c r="X14">
+      <c r="Y14" s="39">
         <f t="shared" si="1"/>
         <v>20303.498383800965</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+    <row r="15" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34">
         <v>1</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="34">
         <v>83</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="34">
         <v>13</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="29">
+      <c r="D15" s="34"/>
+      <c r="E15" s="35">
         <v>228.77988148003539</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="35">
         <v>291.38564420385563</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="35"/>
+      <c r="H15" s="35">
         <v>2.2718848283035471</v>
       </c>
-      <c r="H15" s="29">
+      <c r="I15" s="35">
         <v>185.24882757543131</v>
       </c>
-      <c r="I15" s="29">
+      <c r="J15" s="35">
         <v>1.2637089425920254</v>
       </c>
-      <c r="J15" s="29">
+      <c r="K15" s="35">
         <v>20.348675793565814</v>
       </c>
-      <c r="K15" s="29">
+      <c r="L15" s="35">
         <v>3.2741399468379524</v>
       </c>
-      <c r="L15" s="29">
+      <c r="M15" s="35">
         <v>121.26797321127827</v>
       </c>
-      <c r="M15" s="29">
+      <c r="N15" s="35">
         <v>1041.0753454483163</v>
       </c>
-      <c r="N15" s="29">
+      <c r="O15" s="35">
         <v>47.90224601250285</v>
       </c>
-      <c r="O15" s="31"/>
-      <c r="P15" s="29">
+      <c r="P15" s="36"/>
+      <c r="Q15" s="35">
         <v>2.4536333903556842</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="R15" s="35">
         <v>45.869967365412137</v>
       </c>
-      <c r="R15" s="29">
+      <c r="S15" s="35">
         <v>640.17480710872087</v>
       </c>
-      <c r="S15" s="28"/>
-      <c r="T15" s="29">
+      <c r="T15" s="37"/>
+      <c r="U15" s="35">
         <v>3.1357087955134539</v>
       </c>
-      <c r="U15" s="29">
+      <c r="V15" s="35">
         <v>0.98112095488900875</v>
       </c>
-      <c r="V15" s="29">
+      <c r="W15" s="35">
         <v>125.85823604912896</v>
       </c>
-      <c r="W15" s="33">
+      <c r="X15" s="38">
         <f t="shared" si="0"/>
         <v>126.83935700401797</v>
       </c>
-      <c r="X15">
+      <c r="Y15" s="39">
         <f t="shared" si="1"/>
         <v>84770.970264352</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <v>1</v>
       </c>
@@ -6753,60 +6790,61 @@
       <c r="F16" s="29">
         <v>231.026587614416</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="29"/>
+      <c r="H16" s="29">
         <v>1.1619868140275005</v>
       </c>
-      <c r="H16" s="29">
+      <c r="I16" s="29">
         <v>203.73653088571416</v>
       </c>
-      <c r="I16" s="29">
+      <c r="J16" s="29">
         <v>0.12538362164780253</v>
       </c>
-      <c r="J16" s="29">
+      <c r="K16" s="29">
         <v>27.294138614764961</v>
       </c>
-      <c r="K16" s="29">
+      <c r="L16" s="29">
         <v>4.3808537359887429</v>
       </c>
-      <c r="L16" s="29">
+      <c r="M16" s="29">
         <v>138.06542480446006</v>
       </c>
-      <c r="M16" s="29">
+      <c r="N16" s="29">
         <v>1954.9741552593819</v>
       </c>
-      <c r="N16" s="29">
+      <c r="O16" s="29">
         <v>86.10076330387885</v>
       </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="29">
+      <c r="P16" s="31"/>
+      <c r="Q16" s="29">
         <v>2.5090212495410498</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="R16" s="29">
         <v>39.789724120609272</v>
       </c>
-      <c r="R16" s="29">
+      <c r="S16" s="29">
         <v>632.83756003584153</v>
       </c>
-      <c r="S16" s="28"/>
-      <c r="T16" s="29">
+      <c r="T16" s="28"/>
+      <c r="U16" s="29">
         <v>1.0684122043582889</v>
       </c>
-      <c r="U16" s="29">
+      <c r="V16" s="29">
         <v>2.896205746240359</v>
       </c>
-      <c r="V16" s="29">
+      <c r="W16" s="29">
         <v>149.36624858557596</v>
       </c>
-      <c r="W16" s="33">
+      <c r="X16" s="33">
         <f t="shared" si="0"/>
         <v>152.26245433181631</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <f t="shared" si="1"/>
         <v>101762.07364509723</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <v>1</v>
       </c>
@@ -6823,60 +6861,61 @@
       <c r="F17" s="29">
         <v>171.12544957239609</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="29"/>
+      <c r="H17" s="29">
         <v>0.9880626148938616</v>
       </c>
-      <c r="H17" s="29">
+      <c r="I17" s="29">
         <v>211.75517846571623</v>
       </c>
-      <c r="I17" s="29">
+      <c r="J17" s="29">
         <v>0.1678363439380034</v>
       </c>
-      <c r="J17" s="29">
+      <c r="K17" s="29">
         <v>23.88903537804628</v>
       </c>
-      <c r="K17" s="29">
+      <c r="L17" s="29">
         <v>3.7136098292125999</v>
       </c>
-      <c r="L17" s="29">
+      <c r="M17" s="29">
         <v>3.7219581460991886</v>
       </c>
-      <c r="M17" s="29">
+      <c r="N17" s="29">
         <v>281.2575354909182</v>
       </c>
-      <c r="N17" s="29">
+      <c r="O17" s="29">
         <v>84.272360449985868</v>
       </c>
-      <c r="O17" s="31"/>
-      <c r="P17" s="29">
+      <c r="P17" s="31"/>
+      <c r="Q17" s="29">
         <v>1.1263277685660842</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="R17" s="29">
         <v>37.120943431233961</v>
       </c>
-      <c r="R17" s="29">
+      <c r="S17" s="29">
         <v>608.07435116487386</v>
       </c>
-      <c r="S17" s="28"/>
-      <c r="T17" s="29">
+      <c r="T17" s="28"/>
+      <c r="U17" s="29">
         <v>1.145333873151192</v>
       </c>
-      <c r="U17" s="29">
+      <c r="V17" s="29">
         <v>2.1516617052683507</v>
       </c>
-      <c r="V17" s="29">
+      <c r="W17" s="29">
         <v>4.3486149320209799</v>
       </c>
-      <c r="W17" s="33">
+      <c r="X17" s="33">
         <f t="shared" si="0"/>
         <v>6.5002766372893301</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <f t="shared" si="1"/>
         <v>4344.3515525883695</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
         <v>1</v>
       </c>
@@ -6893,60 +6932,61 @@
       <c r="F18" s="29">
         <v>528.55753822957945</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29">
         <v>1.8540757181606256</v>
       </c>
-      <c r="H18" s="29">
+      <c r="I18" s="29">
         <v>256.6949811293228</v>
       </c>
-      <c r="I18" s="29">
+      <c r="J18" s="29">
         <v>0</v>
       </c>
-      <c r="J18" s="29">
+      <c r="K18" s="29">
         <v>60.871893777370495</v>
       </c>
-      <c r="K18" s="29">
+      <c r="L18" s="29">
         <v>3.7764726714997878</v>
       </c>
-      <c r="L18" s="29">
+      <c r="M18" s="29">
         <v>5.346828394670287</v>
       </c>
-      <c r="M18" s="29">
+      <c r="N18" s="29">
         <v>33.065574574240323</v>
       </c>
-      <c r="N18" s="29">
+      <c r="O18" s="29">
         <v>92.80001841285106</v>
       </c>
-      <c r="O18" s="31"/>
-      <c r="P18" s="29">
+      <c r="P18" s="31"/>
+      <c r="Q18" s="29">
         <v>1.6228050861546475</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="R18" s="29">
         <v>39.981778944964972</v>
       </c>
-      <c r="R18" s="29">
+      <c r="S18" s="29">
         <v>622.05403024691293</v>
       </c>
-      <c r="S18" s="28"/>
-      <c r="T18" s="29">
+      <c r="T18" s="28"/>
+      <c r="U18" s="29">
         <v>1.8322954429066975</v>
       </c>
-      <c r="U18" s="29">
+      <c r="V18" s="29">
         <v>8.7976287292745772E-2</v>
       </c>
-      <c r="V18" s="29">
+      <c r="W18" s="29">
         <v>3.2449952622036808</v>
       </c>
-      <c r="W18" s="33">
+      <c r="X18" s="33">
         <f t="shared" si="0"/>
         <v>3.3329715494964267</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <f t="shared" si="1"/>
         <v>2227.5359855801116</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <v>1</v>
       </c>
@@ -6963,60 +7003,61 @@
       <c r="F19" s="29">
         <v>285.81986771139862</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="29"/>
+      <c r="H19" s="29">
         <v>2.2480779551808809</v>
       </c>
-      <c r="H19" s="29">
+      <c r="I19" s="29">
         <v>202.08669342659022</v>
       </c>
-      <c r="I19" s="29">
+      <c r="J19" s="29">
         <v>0</v>
       </c>
-      <c r="J19" s="29">
+      <c r="K19" s="29">
         <v>19.972596286409967</v>
       </c>
-      <c r="K19" s="29">
+      <c r="L19" s="29">
         <v>1.9740652601021624</v>
       </c>
-      <c r="L19" s="29">
+      <c r="M19" s="29">
         <v>3.2916496494862053</v>
       </c>
-      <c r="M19" s="29">
+      <c r="N19" s="29">
         <v>11.604585368017807</v>
       </c>
-      <c r="N19" s="29">
+      <c r="O19" s="29">
         <v>96.452030435045828</v>
       </c>
-      <c r="O19" s="31"/>
-      <c r="P19" s="29">
+      <c r="P19" s="31"/>
+      <c r="Q19" s="29">
         <v>3.6632435488470882</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="R19" s="29">
         <v>36.672347003865809</v>
       </c>
-      <c r="R19" s="29">
+      <c r="S19" s="29">
         <v>611.40946347072804</v>
       </c>
-      <c r="S19" s="28"/>
-      <c r="T19" s="29">
+      <c r="T19" s="28"/>
+      <c r="U19" s="29">
         <v>2.1703605294484314</v>
       </c>
-      <c r="U19" s="29">
+      <c r="V19" s="29">
         <v>0.16036716848290083</v>
       </c>
-      <c r="V19" s="29">
+      <c r="W19" s="29">
         <v>1.9149932193676928</v>
       </c>
-      <c r="W19" s="33">
+      <c r="X19" s="33">
         <f t="shared" si="0"/>
         <v>2.0753603878505937</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <f t="shared" si="1"/>
         <v>1387.0325258801467</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <v>2</v>
       </c>
@@ -7033,60 +7074,61 @@
       <c r="F20" s="29">
         <v>3773.1018689024727</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="29"/>
+      <c r="H20" s="29">
         <v>118.26529154483727</v>
       </c>
-      <c r="H20" s="29">
+      <c r="I20" s="29">
         <v>190.63791857732241</v>
       </c>
-      <c r="I20" s="29">
+      <c r="J20" s="29">
         <v>3.3350068813092673</v>
       </c>
-      <c r="J20" s="29">
+      <c r="K20" s="29">
         <v>18.139159689252565</v>
       </c>
-      <c r="K20" s="29">
+      <c r="L20" s="29">
         <v>1.0901890069883293</v>
       </c>
-      <c r="L20" s="29">
+      <c r="M20" s="29">
         <v>7.8055698267582958</v>
       </c>
-      <c r="M20" s="29">
+      <c r="N20" s="29">
         <v>114.06683368681612</v>
       </c>
-      <c r="N20" s="29">
+      <c r="O20" s="29">
         <v>40.157074458135298</v>
       </c>
-      <c r="O20" s="31"/>
-      <c r="P20" s="29">
+      <c r="P20" s="31"/>
+      <c r="Q20" s="29">
         <v>1.6832084684283535</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="R20" s="29">
         <v>49.938137356093137</v>
       </c>
-      <c r="R20" s="29">
+      <c r="S20" s="29">
         <v>631.58689292114616</v>
       </c>
-      <c r="S20" s="28"/>
-      <c r="T20" s="29">
+      <c r="T20" s="28"/>
+      <c r="U20" s="29">
         <v>42.542386688508572</v>
       </c>
-      <c r="U20" s="29">
+      <c r="V20" s="29">
         <v>0.45194545961968968</v>
       </c>
-      <c r="V20" s="29">
+      <c r="W20" s="29">
         <v>1.6173848512657296</v>
       </c>
-      <c r="W20" s="33">
+      <c r="X20" s="33">
         <f t="shared" si="0"/>
         <v>2.0693303108854195</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <f t="shared" si="1"/>
         <v>1383.0024244417552</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
         <v>2</v>
       </c>
@@ -7103,60 +7145,61 @@
       <c r="F21" s="29">
         <v>2232.7357909276052</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="29"/>
+      <c r="H21" s="29">
         <v>54.897190582878054</v>
       </c>
-      <c r="H21" s="29">
+      <c r="I21" s="29">
         <v>3356.1924301877943</v>
       </c>
-      <c r="I21" s="29">
+      <c r="J21" s="29">
         <v>2.7732487654226561</v>
       </c>
-      <c r="J21" s="29">
+      <c r="K21" s="29">
         <v>16.997872550474142</v>
       </c>
-      <c r="K21" s="29">
+      <c r="L21" s="29">
         <v>18.936507126712481</v>
       </c>
-      <c r="L21" s="29">
+      <c r="M21" s="29">
         <v>131.32459095310276</v>
       </c>
-      <c r="M21" s="29">
+      <c r="N21" s="29">
         <v>1158.2810120467982</v>
       </c>
-      <c r="N21" s="29">
+      <c r="O21" s="29">
         <v>69.056904328348793</v>
       </c>
-      <c r="O21" s="31"/>
-      <c r="P21" s="29">
+      <c r="P21" s="31"/>
+      <c r="Q21" s="29">
         <v>1.4932581782727257</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="R21" s="29">
         <v>43.793859955017872</v>
       </c>
-      <c r="R21" s="29">
+      <c r="S21" s="29">
         <v>648.84609910394181</v>
       </c>
-      <c r="S21" s="28"/>
-      <c r="T21" s="29">
+      <c r="T21" s="28"/>
+      <c r="U21" s="29">
         <v>35.757675751605142</v>
       </c>
-      <c r="U21" s="29">
+      <c r="V21" s="29">
         <v>9.1412521310008223</v>
       </c>
-      <c r="V21" s="29">
+      <c r="W21" s="29">
         <v>93.038389171794137</v>
       </c>
-      <c r="W21" s="33">
+      <c r="X21" s="33">
         <f t="shared" si="0"/>
         <v>102.17964130279496</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <f t="shared" si="1"/>
         <v>68290.060270701288</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
         <v>2</v>
       </c>
@@ -7173,60 +7216,61 @@
       <c r="F22" s="29">
         <v>3197.1870811587646</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="29"/>
+      <c r="H22" s="29">
         <v>110.71213441844371</v>
       </c>
-      <c r="H22" s="29">
+      <c r="I22" s="29">
         <v>478.52053119424534</v>
       </c>
-      <c r="I22" s="29">
+      <c r="J22" s="29">
         <v>2.5748069705312524</v>
       </c>
-      <c r="J22" s="29">
+      <c r="K22" s="29">
         <v>13.177127544356065</v>
       </c>
-      <c r="K22" s="29">
+      <c r="L22" s="29">
         <v>1.0852762339130029</v>
       </c>
-      <c r="L22" s="29">
+      <c r="M22" s="29">
         <v>83.60514957332424</v>
       </c>
-      <c r="M22" s="29">
+      <c r="N22" s="29">
         <v>551.30380292240807</v>
       </c>
-      <c r="N22" s="29">
+      <c r="O22" s="29">
         <v>65.866203063652549</v>
       </c>
-      <c r="O22" s="31"/>
-      <c r="P22" s="29">
+      <c r="P22" s="31"/>
+      <c r="Q22" s="29">
         <v>1.3081694353370092</v>
       </c>
-      <c r="Q22" s="29">
+      <c r="R22" s="29">
         <v>41.043750169841225</v>
       </c>
-      <c r="R22" s="29">
+      <c r="S22" s="29">
         <v>611.40946347072804</v>
       </c>
-      <c r="S22" s="28"/>
-      <c r="T22" s="29">
+      <c r="T22" s="28"/>
+      <c r="U22" s="29">
         <v>5.780483443191633</v>
       </c>
-      <c r="U22" s="29">
+      <c r="V22" s="29">
         <v>16.782463018778994</v>
       </c>
-      <c r="V22" s="29">
+      <c r="W22" s="29">
         <v>100.3312066787897</v>
       </c>
-      <c r="W22" s="33">
+      <c r="X22" s="33">
         <f t="shared" si="0"/>
         <v>117.1136696975687</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <f t="shared" si="1"/>
         <v>78270.96924787508</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
         <v>2</v>
       </c>
@@ -7243,60 +7287,61 @@
       <c r="F23" s="29">
         <v>2141.4010662160322</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="29"/>
+      <c r="H23" s="29">
         <v>140.0228676419224</v>
       </c>
-      <c r="H23" s="29">
+      <c r="I23" s="29">
         <v>148.99151840120118</v>
       </c>
-      <c r="I23" s="29">
+      <c r="J23" s="29">
         <v>2.0821579374426422</v>
       </c>
-      <c r="J23" s="29">
+      <c r="K23" s="29">
         <v>9.9833006464770015</v>
       </c>
-      <c r="K23" s="29">
+      <c r="L23" s="29">
         <v>1.3527990586512286</v>
       </c>
-      <c r="L23" s="29">
+      <c r="M23" s="29">
         <v>0.56615392019059552</v>
       </c>
-      <c r="M23" s="29">
+      <c r="N23" s="29">
         <v>35.714319053334478</v>
       </c>
-      <c r="N23" s="29">
+      <c r="O23" s="29">
         <v>2.6383372267204375</v>
       </c>
-      <c r="O23" s="31"/>
-      <c r="P23" s="29">
+      <c r="P23" s="31"/>
+      <c r="Q23" s="29">
         <v>0.35641420779155364</v>
       </c>
-      <c r="Q23" s="29">
+      <c r="R23" s="29">
         <v>35.879709919918028</v>
       </c>
-      <c r="R23" s="29">
+      <c r="S23" s="29">
         <v>550.87717511947358</v>
       </c>
-      <c r="S23" s="28"/>
-      <c r="T23" s="29">
+      <c r="T23" s="28"/>
+      <c r="U23" s="29">
         <v>7.7837376093863826</v>
       </c>
-      <c r="U23" s="29">
+      <c r="V23" s="29">
         <v>0</v>
       </c>
-      <c r="V23" s="29">
+      <c r="W23" s="29">
         <v>5.4367849085364371E-2</v>
       </c>
-      <c r="W23" s="33">
+      <c r="X23" s="33">
         <f t="shared" si="0"/>
         <v>5.4367849085364371E-2</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <f t="shared" si="1"/>
         <v>36.335845805385183</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
         <v>2</v>
       </c>
@@ -7313,60 +7358,61 @@
       <c r="F24" s="29">
         <v>3881.5038811334693</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="29"/>
+      <c r="H24" s="29">
         <v>79.346747544859184</v>
       </c>
-      <c r="H24" s="29">
+      <c r="I24" s="29">
         <v>1043.7519450108932</v>
       </c>
-      <c r="I24" s="29">
+      <c r="J24" s="29">
         <v>0.35048177704700706</v>
       </c>
-      <c r="J24" s="29">
+      <c r="K24" s="29">
         <v>17.669217926226157</v>
       </c>
-      <c r="K24" s="29">
+      <c r="L24" s="29">
         <v>3.9297718445269596</v>
       </c>
-      <c r="L24" s="29">
+      <c r="M24" s="29">
         <v>62.470295365677323</v>
       </c>
-      <c r="M24" s="29">
+      <c r="N24" s="29">
         <v>931.75211217821379</v>
       </c>
-      <c r="N24" s="29">
+      <c r="O24" s="29">
         <v>60.094955309394493</v>
       </c>
-      <c r="O24" s="31"/>
-      <c r="P24" s="29">
+      <c r="P24" s="31"/>
+      <c r="Q24" s="29">
         <v>0</v>
       </c>
-      <c r="Q24" s="29">
+      <c r="R24" s="29">
         <v>39.794512388991258</v>
       </c>
-      <c r="R24" s="29">
+      <c r="S24" s="29">
         <v>608.82475143369106</v>
       </c>
-      <c r="S24" s="28"/>
-      <c r="T24" s="29">
+      <c r="T24" s="28"/>
+      <c r="U24" s="29">
         <v>37.944840007202586</v>
       </c>
-      <c r="U24" s="29">
+      <c r="V24" s="29">
         <v>5.2989707550083729</v>
       </c>
-      <c r="V24" s="29">
+      <c r="W24" s="29">
         <v>72.172570760776892</v>
       </c>
-      <c r="W24" s="33">
+      <c r="X24" s="33">
         <f t="shared" si="0"/>
         <v>77.471541515785262</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <f t="shared" si="1"/>
         <v>51776.813579716487</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
         <v>2</v>
       </c>
@@ -7383,60 +7429,61 @@
       <c r="F25" s="29">
         <v>3971.6156612114764</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="29"/>
+      <c r="H25" s="29">
         <v>104.99636723452586</v>
       </c>
-      <c r="H25" s="29">
+      <c r="I25" s="29">
         <v>2459.7403070811906</v>
       </c>
-      <c r="I25" s="29">
+      <c r="J25" s="29">
         <v>0.93297261777301899</v>
       </c>
-      <c r="J25" s="29">
+      <c r="K25" s="29">
         <v>30.851281833639227</v>
       </c>
-      <c r="K25" s="29">
+      <c r="L25" s="29">
         <v>5.3861857534941615</v>
       </c>
-      <c r="L25" s="29">
+      <c r="M25" s="29">
         <v>155.59261276843029</v>
       </c>
-      <c r="M25" s="29">
+      <c r="N25" s="29">
         <v>1961.4978980879812</v>
       </c>
-      <c r="N25" s="29">
+      <c r="O25" s="29">
         <v>67.911196602275638</v>
       </c>
-      <c r="O25" s="31"/>
-      <c r="P25" s="29">
+      <c r="P25" s="31"/>
+      <c r="Q25" s="29">
         <v>1.4574742562773413</v>
       </c>
-      <c r="Q25" s="29">
+      <c r="R25" s="29">
         <v>35.618570626369653</v>
       </c>
-      <c r="R25" s="29">
+      <c r="S25" s="29">
         <v>551.12730854241272</v>
       </c>
-      <c r="S25" s="28"/>
-      <c r="T25" s="29">
+      <c r="T25" s="28"/>
+      <c r="U25" s="29">
         <v>58.133069845490425</v>
       </c>
-      <c r="U25" s="29">
+      <c r="V25" s="29">
         <v>16.14984085278304</v>
       </c>
-      <c r="V25" s="29">
+      <c r="W25" s="29">
         <v>155.05721863292277</v>
       </c>
-      <c r="W25" s="33">
+      <c r="X25" s="33">
         <f t="shared" si="0"/>
         <v>171.2070594857058</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <f t="shared" si="1"/>
         <v>114423.38475628002</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="26">
         <v>2</v>
       </c>
@@ -7453,60 +7500,61 @@
       <c r="F26" s="29">
         <v>4483.0604380721643</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="29"/>
+      <c r="H26" s="29">
         <v>67.861778634993939</v>
       </c>
-      <c r="H26" s="29">
+      <c r="I26" s="29">
         <v>2200.4007693605899</v>
       </c>
-      <c r="I26" s="29">
+      <c r="J26" s="29">
         <v>0.54991084454981121</v>
       </c>
-      <c r="J26" s="29">
+      <c r="K26" s="29">
         <v>18.339576029366775</v>
       </c>
-      <c r="K26" s="29">
+      <c r="L26" s="29">
         <v>6.1195287889201504</v>
       </c>
-      <c r="L26" s="29">
+      <c r="M26" s="29">
         <v>115.57819531181978</v>
       </c>
-      <c r="M26" s="29">
+      <c r="N26" s="29">
         <v>1736.9647260291028</v>
       </c>
-      <c r="N26" s="29">
+      <c r="O26" s="29">
         <v>70.734368124742176</v>
       </c>
-      <c r="O26" s="31"/>
-      <c r="P26" s="29">
+      <c r="P26" s="31"/>
+      <c r="Q26" s="29">
         <v>3.197117693079881</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="R26" s="29">
         <v>36.931914030184288</v>
       </c>
-      <c r="R26" s="29">
+      <c r="S26" s="29">
         <v>608.15772897252009</v>
       </c>
-      <c r="S26" s="28"/>
-      <c r="T26" s="29">
+      <c r="T26" s="28"/>
+      <c r="U26" s="29">
         <v>29.512232707827362</v>
       </c>
-      <c r="U26" s="29">
+      <c r="V26" s="29">
         <v>39.180088862069049</v>
       </c>
-      <c r="V26" s="29">
+      <c r="W26" s="29">
         <v>87.074281923851615</v>
       </c>
-      <c r="W26" s="33">
+      <c r="X26" s="33">
         <f t="shared" si="0"/>
         <v>126.25437078592066</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <f t="shared" si="1"/>
         <v>84380.004475256967</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="26">
         <v>2</v>
       </c>
@@ -7523,200 +7571,203 @@
       <c r="F27" s="29">
         <v>3251.0968960286523</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="29"/>
+      <c r="H27" s="29">
         <v>112.19258893918557</v>
       </c>
-      <c r="H27" s="29">
+      <c r="I27" s="29">
         <v>158.5011180682572</v>
       </c>
-      <c r="I27" s="29">
+      <c r="J27" s="29">
         <v>0.78981808912001583</v>
       </c>
-      <c r="J27" s="29">
+      <c r="K27" s="29">
         <v>13.417034788926269</v>
       </c>
-      <c r="K27" s="29">
+      <c r="L27" s="29">
         <v>2.2049418793532904</v>
       </c>
-      <c r="L27" s="29">
+      <c r="M27" s="29">
         <v>3.9471826077805239</v>
       </c>
-      <c r="M27" s="29">
+      <c r="N27" s="29">
         <v>225.07248771522254</v>
       </c>
-      <c r="N27" s="29">
+      <c r="O27" s="29">
         <v>29.705716096227064</v>
       </c>
-      <c r="O27" s="31"/>
-      <c r="P27" s="29">
+      <c r="P27" s="31"/>
+      <c r="Q27" s="29">
         <v>1.4499356559833847</v>
       </c>
-      <c r="Q27" s="29">
+      <c r="R27" s="29">
         <v>32.793063480849938</v>
       </c>
-      <c r="R27" s="29">
+      <c r="S27" s="29">
         <v>557.63077753882851</v>
       </c>
-      <c r="S27" s="28"/>
-      <c r="T27" s="29">
+      <c r="T27" s="28"/>
+      <c r="U27" s="29">
         <v>11.975106795748008</v>
       </c>
-      <c r="U27" s="29">
+      <c r="V27" s="29">
         <v>1.0958986718169075</v>
       </c>
-      <c r="V27" s="29">
+      <c r="W27" s="29">
         <v>1.8954118219384446</v>
       </c>
-      <c r="W27" s="33">
+      <c r="X27" s="33">
         <f t="shared" si="0"/>
         <v>2.9913104937553521</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <f t="shared" si="1"/>
         <v>1999.1925133264933</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="26">
+    <row r="28" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="34">
         <v>2</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="34">
         <v>82</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="34">
         <v>30</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="29">
+      <c r="D28" s="34"/>
+      <c r="E28" s="35">
         <v>268.6863502889907</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="35">
         <v>6230.8004316345232</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="35"/>
+      <c r="H28" s="35">
         <v>97.629516323313879</v>
       </c>
-      <c r="H28" s="29">
+      <c r="I28" s="35">
         <v>210.93128193417056</v>
       </c>
-      <c r="I28" s="29">
+      <c r="J28" s="35">
         <v>0.82437263051901666</v>
       </c>
-      <c r="J28" s="29">
+      <c r="K28" s="35">
         <v>59.833656613898214</v>
       </c>
-      <c r="K28" s="29">
+      <c r="L28" s="35">
         <v>3.3268406034641806</v>
       </c>
-      <c r="L28" s="29">
+      <c r="M28" s="35">
         <v>62.470295365677323</v>
       </c>
-      <c r="M28" s="29">
+      <c r="N28" s="35">
         <v>931.75211217821379</v>
       </c>
-      <c r="N28" s="29">
+      <c r="O28" s="35">
         <v>43.232218691744464</v>
       </c>
-      <c r="O28" s="31"/>
-      <c r="P28" s="29">
+      <c r="P28" s="36"/>
+      <c r="Q28" s="35">
         <v>3.7553696450629532</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="R28" s="35">
         <v>36.517264281643591</v>
       </c>
-      <c r="R28" s="29">
+      <c r="S28" s="35">
         <v>542.70614997013081</v>
       </c>
-      <c r="S28" s="28"/>
-      <c r="T28" s="29">
+      <c r="T28" s="37"/>
+      <c r="U28" s="35">
         <v>34.905373941357936</v>
       </c>
-      <c r="U28" s="29">
+      <c r="V28" s="35">
         <v>2.8771837200660282</v>
       </c>
-      <c r="V28" s="29">
+      <c r="W28" s="35">
         <v>46.464899286120996</v>
       </c>
-      <c r="W28" s="33">
+      <c r="X28" s="38">
         <f t="shared" si="0"/>
         <v>49.342083006187025</v>
       </c>
-      <c r="X28">
+      <c r="Y28" s="39">
         <f t="shared" si="1"/>
         <v>32976.958809134994</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="26">
+    <row r="29" spans="1:25" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="34">
         <v>2</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="34">
         <v>82</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="34">
         <v>31</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="29">
+      <c r="D29" s="34"/>
+      <c r="E29" s="35">
         <v>270.25418342713834</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="35">
         <v>4723.7462621342402</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="35"/>
+      <c r="H29" s="35">
         <v>71.146053404855166</v>
       </c>
-      <c r="H29" s="29">
+      <c r="I29" s="35">
         <v>299.88456762417655</v>
       </c>
-      <c r="I29" s="29">
+      <c r="J29" s="35">
         <v>0.39145359042010797</v>
       </c>
-      <c r="J29" s="29">
+      <c r="K29" s="35">
         <v>88.941415015805006</v>
       </c>
-      <c r="K29" s="29">
+      <c r="L29" s="35">
         <v>3.6265197610590882</v>
       </c>
-      <c r="L29" s="29">
+      <c r="M29" s="35">
         <v>155.59261276843029</v>
       </c>
-      <c r="M29" s="29">
+      <c r="N29" s="35">
         <v>1961.4978980879812</v>
       </c>
-      <c r="N29" s="29">
+      <c r="O29" s="35">
         <v>45.767075726200446</v>
       </c>
-      <c r="O29" s="31"/>
-      <c r="P29" s="29">
+      <c r="P29" s="36"/>
+      <c r="Q29" s="35">
         <v>1.4024419510449477</v>
       </c>
-      <c r="Q29" s="29">
+      <c r="R29" s="35">
         <v>38.937483815309733</v>
       </c>
-      <c r="R29" s="29">
+      <c r="S29" s="35">
         <v>553.79539838709616</v>
       </c>
-      <c r="S29" s="28"/>
-      <c r="T29" s="29">
+      <c r="T29" s="37"/>
+      <c r="U29" s="35">
         <v>18.40266521664411</v>
       </c>
-      <c r="U29" s="29">
+      <c r="V29" s="35">
         <v>4.3002629535489394</v>
       </c>
-      <c r="V29" s="29">
+      <c r="W29" s="35">
         <v>97.776616576476087</v>
       </c>
-      <c r="W29" s="33">
+      <c r="X29" s="38">
         <f t="shared" si="0"/>
         <v>102.07687953002502</v>
       </c>
-      <c r="X29">
+      <c r="Y29" s="39">
         <f t="shared" si="1"/>
         <v>68221.381152566726</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="26">
         <v>2</v>
       </c>
@@ -7733,60 +7784,61 @@
       <c r="F30" s="29">
         <v>7489.9875601336171</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="29"/>
+      <c r="H30" s="29">
         <v>103.15525750229551</v>
       </c>
-      <c r="H30" s="29">
+      <c r="I30" s="29">
         <v>579.21647399972414</v>
       </c>
-      <c r="I30" s="29">
+      <c r="J30" s="29">
         <v>0.26656360507800536</v>
       </c>
-      <c r="J30" s="29">
+      <c r="K30" s="29">
         <v>381.84742791118572</v>
       </c>
-      <c r="K30" s="29">
+      <c r="L30" s="29">
         <v>3.4970011981641207</v>
       </c>
-      <c r="L30" s="29">
+      <c r="M30" s="29">
         <v>105.11381851574227</v>
       </c>
-      <c r="M30" s="29">
+      <c r="N30" s="29">
         <v>415.80283374260472</v>
       </c>
-      <c r="N30" s="29">
+      <c r="O30" s="29">
         <v>67.896535187569441</v>
       </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="29">
+      <c r="P30" s="31"/>
+      <c r="Q30" s="29">
         <v>3.0320374810559376</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="R30" s="29">
         <v>34.051163131541173</v>
       </c>
-      <c r="R30" s="29">
+      <c r="S30" s="29">
         <v>586.97976583034585</v>
       </c>
-      <c r="S30" s="28"/>
-      <c r="T30" s="29">
+      <c r="T30" s="28"/>
+      <c r="U30" s="29">
         <v>21.127894765993343</v>
       </c>
-      <c r="U30" s="29">
+      <c r="V30" s="29">
         <v>9.6997344153400835</v>
       </c>
-      <c r="V30" s="29">
+      <c r="W30" s="29">
         <v>110.96685261184173</v>
       </c>
-      <c r="W30" s="33">
+      <c r="X30" s="33">
         <f t="shared" si="0"/>
         <v>120.66658702718182</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <f t="shared" si="1"/>
         <v>80645.50232983318</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
         <v>2</v>
       </c>
@@ -7803,60 +7855,61 @@
       <c r="F31" s="29">
         <v>6973.681448650379</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="29"/>
+      <c r="H31" s="29">
         <v>50.158345253488072</v>
       </c>
-      <c r="H31" s="29">
+      <c r="I31" s="29">
         <v>273.29726590284736</v>
       </c>
-      <c r="I31" s="29">
+      <c r="J31" s="29">
         <v>0.48771267003160995</v>
       </c>
-      <c r="J31" s="29">
+      <c r="K31" s="29">
         <v>470.16784845442004</v>
       </c>
-      <c r="K31" s="29">
+      <c r="L31" s="29">
         <v>1.2826803883942981</v>
       </c>
-      <c r="L31" s="29">
+      <c r="M31" s="29">
         <v>62.728357185765375</v>
       </c>
-      <c r="M31" s="29">
+      <c r="N31" s="29">
         <v>208.5945196211857</v>
       </c>
-      <c r="N31" s="29">
+      <c r="O31" s="29">
         <v>71.225429151932573</v>
       </c>
-      <c r="O31" s="31"/>
-      <c r="P31" s="29">
+      <c r="P31" s="31"/>
+      <c r="Q31" s="29">
         <v>2.2297551026544276</v>
       </c>
-      <c r="Q31" s="29">
+      <c r="R31" s="29">
         <v>36.979153513773632</v>
       </c>
-      <c r="R31" s="29">
+      <c r="S31" s="29">
         <v>582.64411983273533</v>
       </c>
-      <c r="S31" s="28"/>
-      <c r="T31" s="29">
+      <c r="T31" s="28"/>
+      <c r="U31" s="29">
         <v>10.967978555952515</v>
       </c>
-      <c r="U31" s="29">
+      <c r="V31" s="29">
         <v>0.9468923431299503</v>
       </c>
-      <c r="V31" s="29">
+      <c r="W31" s="29">
         <v>71.794574529606194</v>
       </c>
-      <c r="W31" s="33">
+      <c r="X31" s="33">
         <f t="shared" si="0"/>
         <v>72.74146687273614</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <f t="shared" si="1"/>
         <v>48615.547026611981</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="26">
         <v>2</v>
       </c>
@@ -7873,60 +7926,61 @@
       <c r="F32" s="29">
         <v>10175.709347577478</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="29"/>
+      <c r="H32" s="29">
         <v>180.08794004179472</v>
       </c>
-      <c r="H32" s="29">
+      <c r="I32" s="29">
         <v>217.02980188446517</v>
       </c>
-      <c r="I32" s="29">
+      <c r="J32" s="29">
         <v>0</v>
       </c>
-      <c r="J32" s="29">
+      <c r="K32" s="29">
         <v>118.30720478607617</v>
       </c>
-      <c r="K32" s="29">
+      <c r="L32" s="29">
         <v>2.0598941844544298</v>
       </c>
-      <c r="L32" s="29">
+      <c r="M32" s="29">
         <v>6.0255448946621923</v>
       </c>
-      <c r="M32" s="29">
+      <c r="N32" s="29">
         <v>123.55190414358768</v>
       </c>
-      <c r="N32" s="29">
+      <c r="O32" s="29">
         <v>76.825451385895633</v>
       </c>
-      <c r="O32" s="31"/>
-      <c r="P32" s="29">
+      <c r="P32" s="31"/>
+      <c r="Q32" s="29">
         <v>3.9613566376614346</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="R32" s="29">
         <v>45.683951476553119</v>
       </c>
-      <c r="R32" s="29">
+      <c r="S32" s="29">
         <v>584.31167598566242</v>
       </c>
-      <c r="S32" s="28"/>
-      <c r="T32" s="29">
+      <c r="T32" s="28"/>
+      <c r="U32" s="29">
         <v>15.680342110874275</v>
       </c>
-      <c r="U32" s="29">
+      <c r="V32" s="29">
         <v>0.19511668942236846</v>
       </c>
-      <c r="V32" s="29">
+      <c r="W32" s="29">
         <v>3.2214518378172063</v>
       </c>
-      <c r="W32" s="33">
+      <c r="X32" s="33">
         <f t="shared" si="0"/>
         <v>3.4165685272395749</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <f t="shared" si="1"/>
         <v>2283.4066323717825</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="26">
         <v>2</v>
       </c>
@@ -7943,55 +7997,56 @@
       <c r="F33" s="29">
         <v>11135.33509556249</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="29"/>
+      <c r="H33" s="29">
         <v>120.0623222500394</v>
       </c>
-      <c r="H33" s="29">
+      <c r="I33" s="29">
         <v>255.7386577721438</v>
       </c>
-      <c r="I33" s="29">
+      <c r="J33" s="29">
         <v>0</v>
       </c>
-      <c r="J33" s="29">
+      <c r="K33" s="29">
         <v>268.38820398021898</v>
       </c>
-      <c r="K33" s="29">
+      <c r="L33" s="29">
         <v>4.1197883689088597</v>
       </c>
-      <c r="L33" s="29">
+      <c r="M33" s="29">
         <v>3.6262894716068592</v>
       </c>
-      <c r="M33" s="29">
+      <c r="N33" s="29">
         <v>66.250655089027987</v>
       </c>
-      <c r="N33" s="29">
+      <c r="O33" s="29">
         <v>106.03984791303326</v>
       </c>
-      <c r="O33" s="31"/>
-      <c r="P33" s="29">
+      <c r="P33" s="31"/>
+      <c r="Q33" s="29">
         <v>4.6835888195675794</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="R33" s="29">
         <v>40.195511999308707</v>
       </c>
-      <c r="R33" s="29">
+      <c r="S33" s="29">
         <v>558.58962232676163</v>
       </c>
-      <c r="S33" s="28"/>
-      <c r="T33" s="29">
+      <c r="T33" s="28"/>
+      <c r="U33" s="29">
         <v>8.8188585402232285</v>
       </c>
-      <c r="U33" s="29">
+      <c r="V33" s="29">
         <v>0.17580944005931898</v>
       </c>
-      <c r="V33" s="29">
+      <c r="W33" s="29">
         <v>3.4399753587702873</v>
       </c>
-      <c r="W33" s="33">
+      <c r="X33" s="33">
         <f t="shared" si="0"/>
         <v>3.6157847988296061</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <f t="shared" si="1"/>
         <v>2416.5495072177864</v>
       </c>
